--- a/data/chap4/4.1.xlsx
+++ b/data/chap4/4.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B80B6A-6825-474F-A803-4CFE85559749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934429C-01AC-4B78-93DA-3E801BFB2132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="107" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
   <si>
     <t>客户</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -107,6 +107,24 @@
   <si>
     <t>消费金额</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户1</t>
+  </si>
+  <si>
+    <t>客户12</t>
+  </si>
+  <si>
+    <t>消费金额</t>
+  </si>
+  <si>
+    <t>项目1消费金额</t>
+  </si>
+  <si>
+    <t>项目2消费金额</t>
+  </si>
+  <si>
+    <t>项目3消费金额</t>
   </si>
 </sst>
 </file>
@@ -227,7 +245,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,9 +257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -378,72 +393,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFE96137"/>
       <color rgb="FF00A4DC"/>
@@ -723,7 +672,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -918,29 +867,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE809B3-10E0-4FC3-95EF-3B3B3FBCC59B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,20 +909,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2">
@@ -982,67 +931,78 @@
       <c r="J2" s="4"/>
       <c r="L2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.399999999999999">
-      <c r="A3" s="5" t="s">
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2">
         <v>22</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2">
         <v>23</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
-      <c r="A5" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="2">
@@ -1050,22 +1010,27 @@
       </c>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.399999999999999">
-      <c r="A6" s="5" t="s">
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2">
@@ -1073,22 +1038,27 @@
       </c>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.399999999999999">
-      <c r="A7" s="5" t="s">
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="2">
@@ -1096,91 +1066,108 @@
       </c>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.399999999999999">
-      <c r="A8" s="5" t="s">
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="2">
         <v>27</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.399999999999999">
-      <c r="A9" s="5" t="s">
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>28</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17.25">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>19</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2">
         <v>29</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2">
@@ -1188,10 +1175,63 @@
       </c>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="6"/>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15">
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <dataConsolidate function="count" leftLabels="1" topLabels="1">
+  <dataConsolidate leftLabels="1" topLabels="1">
     <dataRefs count="3">
       <dataRef ref="A1:B11" sheet="案例1"/>
       <dataRef ref="D1:E11" sheet="案例1"/>
@@ -1206,20 +1246,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10667E9D-1943-4E9E-8DFF-11D127EEE1C4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1239,204 +1279,495 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999">
-      <c r="A3" s="5" t="s">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999">
-      <c r="A4" s="5" t="s">
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999">
-      <c r="A5" s="5" t="s">
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999">
-      <c r="A6" s="5" t="s">
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999">
-      <c r="A7" s="5" t="s">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999">
-      <c r="A8" s="5" t="s">
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999">
-      <c r="A9" s="5" t="s">
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+      <c r="R9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.25">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>19</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999">
-      <c r="A11" s="5" t="s">
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17">
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1449,5 +1780,6 @@
   </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>